--- a/po_analysis_by_asin/B0BF73P6HY_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF73P6HY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,65 +452,369 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45467</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45481</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45488</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45495</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>16</v>
       </c>
     </row>
@@ -525,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,25 +851,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BF73P6HY_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF73P6HY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,36 +607,36 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>38</v>
@@ -644,15 +644,15 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>38</v>
@@ -660,39 +660,39 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>8</v>
@@ -700,31 +700,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -732,31 +732,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>6</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>6</v>
@@ -772,49 +772,33 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45494.99999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45501.99999999999</v>
-      </c>
-      <c r="B47" t="n">
         <v>16</v>
       </c>
     </row>
@@ -902,7 +886,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>192</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">

--- a/po_analysis_by_asin/B0BF73P6HY_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF73P6HY_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -829,7 +830,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -951,6 +952,775 @@
       </c>
       <c r="B16" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.001083464255852</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.96366744955531</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.112570928467731</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.09254713643674</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.282147916663185</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.24414030731676</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.902805895993974</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.41759671063445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.042002740609933</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.69574964538967</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.235735814107168</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.02656732373559</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.264620392690848</v>
+      </c>
+      <c r="D8" t="n">
+        <v>39.33128303614692</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.145640223112871</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.27314951593049</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.611270092610765</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42.23106518668574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.089362907673929</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40.19045518204013</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.266583693098193</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42.95876673060301</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.385294085100201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42.16914752916026</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.254251291527396</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42.1315196626172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.058169015468867</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41.41153487003594</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.534441180629383</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41.88467653650137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-4.109763876675293</v>
+      </c>
+      <c r="D17" t="n">
+        <v>41.66665781357219</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.511597366912603</v>
+      </c>
+      <c r="D18" t="n">
+        <v>43.49980438871455</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-3.188688305520853</v>
+      </c>
+      <c r="D19" t="n">
+        <v>41.52038194698891</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.544246417302229</v>
+      </c>
+      <c r="D20" t="n">
+        <v>41.54621501799996</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.396730188976981</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41.32173261272515</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.331300059612547</v>
+      </c>
+      <c r="D22" t="n">
+        <v>40.4430713162415</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.524428478156972</v>
+      </c>
+      <c r="D23" t="n">
+        <v>41.99191117581515</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.326158616405931</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41.23295086797926</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.308524441105588</v>
+      </c>
+      <c r="D25" t="n">
+        <v>42.06342542537123</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>18</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.728243237580706</v>
+      </c>
+      <c r="D26" t="n">
+        <v>41.27232557866788</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.658265096277596</v>
+      </c>
+      <c r="D27" t="n">
+        <v>41.89109501890778</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.328789426734062</v>
+      </c>
+      <c r="D28" t="n">
+        <v>42.14271137590939</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>18</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.779903970789701</v>
+      </c>
+      <c r="D29" t="n">
+        <v>40.33719225407743</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.074639311602143</v>
+      </c>
+      <c r="D30" t="n">
+        <v>39.93532624021667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.190385641307411</v>
+      </c>
+      <c r="D31" t="n">
+        <v>41.01987262422956</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-3.510546647329922</v>
+      </c>
+      <c r="D32" t="n">
+        <v>39.54281814454633</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>18</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.864464741188095</v>
+      </c>
+      <c r="D33" t="n">
+        <v>40.48708271900549</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>18</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-5.225971706246503</v>
+      </c>
+      <c r="D34" t="n">
+        <v>39.79409969105137</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>18</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.99653941279617</v>
+      </c>
+      <c r="D35" t="n">
+        <v>40.41370352758963</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>18</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.572053819219883</v>
+      </c>
+      <c r="D36" t="n">
+        <v>38.8296446354957</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.875548105249989</v>
+      </c>
+      <c r="D37" t="n">
+        <v>40.72126439055647</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-2.394984604430462</v>
+      </c>
+      <c r="D38" t="n">
+        <v>40.77689916758364</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>17</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-3.87380615422391</v>
+      </c>
+      <c r="D39" t="n">
+        <v>39.02488823337442</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>17</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-6.330881602104323</v>
+      </c>
+      <c r="D40" t="n">
+        <v>40.64618149951462</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>17</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-3.932065431696644</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39.9344703337876</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-6.889046017631285</v>
+      </c>
+      <c r="D42" t="n">
+        <v>39.25516001879645</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-6.532220048094338</v>
+      </c>
+      <c r="D43" t="n">
+        <v>39.21738200544963</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-7.165344900999286</v>
+      </c>
+      <c r="D44" t="n">
+        <v>39.01019700591439</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-6.458806781291306</v>
+      </c>
+      <c r="D45" t="n">
+        <v>40.3876557959607</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-6.796791392164205</v>
+      </c>
+      <c r="D46" t="n">
+        <v>37.70709528177134</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>16</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-6.386553536273462</v>
+      </c>
+      <c r="D47" t="n">
+        <v>39.00398611132584</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>16</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-7.023032179087068</v>
+      </c>
+      <c r="D48" t="n">
+        <v>37.47406802633554</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-7.131361432447015</v>
+      </c>
+      <c r="D49" t="n">
+        <v>39.11167892606952</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>16</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-5.73525563810245</v>
+      </c>
+      <c r="D50" t="n">
+        <v>37.07065877135237</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>16</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-7.320946901800112</v>
+      </c>
+      <c r="D51" t="n">
+        <v>36.92161248142936</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-6.195085520065345</v>
+      </c>
+      <c r="D52" t="n">
+        <v>39.27765650385987</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-6.555332465829763</v>
+      </c>
+      <c r="D53" t="n">
+        <v>38.72294947421716</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BF73P6HY_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF73P6HY_po_data.xlsx
@@ -965,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,16 +984,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1002,12 +992,6 @@
       <c r="B2" t="n">
         <v>20</v>
       </c>
-      <c r="C2" t="n">
-        <v>-2.001083464255852</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.96366744955531</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1016,12 +1000,6 @@
       <c r="B3" t="n">
         <v>20</v>
       </c>
-      <c r="C3" t="n">
-        <v>-2.112570928467731</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.09254713643674</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1030,12 +1008,6 @@
       <c r="B4" t="n">
         <v>20</v>
       </c>
-      <c r="C4" t="n">
-        <v>-3.282147916663185</v>
-      </c>
-      <c r="D4" t="n">
-        <v>42.24414030731676</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1044,12 +1016,6 @@
       <c r="B5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" t="n">
-        <v>-2.902805895993974</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.41759671063445</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1058,12 +1024,6 @@
       <c r="B6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.042002740609933</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.69574964538967</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1072,12 +1032,6 @@
       <c r="B7" t="n">
         <v>20</v>
       </c>
-      <c r="C7" t="n">
-        <v>-4.235735814107168</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42.02656732373559</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1086,12 +1040,6 @@
       <c r="B8" t="n">
         <v>20</v>
       </c>
-      <c r="C8" t="n">
-        <v>-2.264620392690848</v>
-      </c>
-      <c r="D8" t="n">
-        <v>39.33128303614692</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1100,12 +1048,6 @@
       <c r="B9" t="n">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
-        <v>-2.145640223112871</v>
-      </c>
-      <c r="D9" t="n">
-        <v>42.27314951593049</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1114,12 +1056,6 @@
       <c r="B10" t="n">
         <v>20</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.611270092610765</v>
-      </c>
-      <c r="D10" t="n">
-        <v>42.23106518668574</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1128,12 +1064,6 @@
       <c r="B11" t="n">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
-        <v>-3.089362907673929</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40.19045518204013</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1142,12 +1072,6 @@
       <c r="B12" t="n">
         <v>20</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.266583693098193</v>
-      </c>
-      <c r="D12" t="n">
-        <v>42.95876673060301</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1156,12 +1080,6 @@
       <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="C13" t="n">
-        <v>-2.385294085100201</v>
-      </c>
-      <c r="D13" t="n">
-        <v>42.16914752916026</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1170,12 +1088,6 @@
       <c r="B14" t="n">
         <v>19</v>
       </c>
-      <c r="C14" t="n">
-        <v>-2.254251291527396</v>
-      </c>
-      <c r="D14" t="n">
-        <v>42.1315196626172</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1184,12 +1096,6 @@
       <c r="B15" t="n">
         <v>19</v>
       </c>
-      <c r="C15" t="n">
-        <v>-3.058169015468867</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41.41153487003594</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1198,12 +1104,6 @@
       <c r="B16" t="n">
         <v>19</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.534441180629383</v>
-      </c>
-      <c r="D16" t="n">
-        <v>41.88467653650137</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1212,12 +1112,6 @@
       <c r="B17" t="n">
         <v>19</v>
       </c>
-      <c r="C17" t="n">
-        <v>-4.109763876675293</v>
-      </c>
-      <c r="D17" t="n">
-        <v>41.66665781357219</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1226,12 +1120,6 @@
       <c r="B18" t="n">
         <v>19</v>
       </c>
-      <c r="C18" t="n">
-        <v>-3.511597366912603</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43.49980438871455</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1240,12 +1128,6 @@
       <c r="B19" t="n">
         <v>19</v>
       </c>
-      <c r="C19" t="n">
-        <v>-3.188688305520853</v>
-      </c>
-      <c r="D19" t="n">
-        <v>41.52038194698891</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1254,12 +1136,6 @@
       <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
-        <v>-3.544246417302229</v>
-      </c>
-      <c r="D20" t="n">
-        <v>41.54621501799996</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1268,12 +1144,6 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="n">
-        <v>-2.396730188976981</v>
-      </c>
-      <c r="D21" t="n">
-        <v>41.32173261272515</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1282,12 +1152,6 @@
       <c r="B22" t="n">
         <v>19</v>
       </c>
-      <c r="C22" t="n">
-        <v>-3.331300059612547</v>
-      </c>
-      <c r="D22" t="n">
-        <v>40.4430713162415</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1296,12 +1160,6 @@
       <c r="B23" t="n">
         <v>19</v>
       </c>
-      <c r="C23" t="n">
-        <v>-2.524428478156972</v>
-      </c>
-      <c r="D23" t="n">
-        <v>41.99191117581515</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1310,12 +1168,6 @@
       <c r="B24" t="n">
         <v>19</v>
       </c>
-      <c r="C24" t="n">
-        <v>-4.326158616405931</v>
-      </c>
-      <c r="D24" t="n">
-        <v>41.23295086797926</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1324,12 +1176,6 @@
       <c r="B25" t="n">
         <v>18</v>
       </c>
-      <c r="C25" t="n">
-        <v>-1.308524441105588</v>
-      </c>
-      <c r="D25" t="n">
-        <v>42.06342542537123</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1338,12 +1184,6 @@
       <c r="B26" t="n">
         <v>18</v>
       </c>
-      <c r="C26" t="n">
-        <v>-2.728243237580706</v>
-      </c>
-      <c r="D26" t="n">
-        <v>41.27232557866788</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1352,12 +1192,6 @@
       <c r="B27" t="n">
         <v>18</v>
       </c>
-      <c r="C27" t="n">
-        <v>-4.658265096277596</v>
-      </c>
-      <c r="D27" t="n">
-        <v>41.89109501890778</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1366,12 +1200,6 @@
       <c r="B28" t="n">
         <v>18</v>
       </c>
-      <c r="C28" t="n">
-        <v>-4.328789426734062</v>
-      </c>
-      <c r="D28" t="n">
-        <v>42.14271137590939</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1380,12 +1208,6 @@
       <c r="B29" t="n">
         <v>18</v>
       </c>
-      <c r="C29" t="n">
-        <v>-4.779903970789701</v>
-      </c>
-      <c r="D29" t="n">
-        <v>40.33719225407743</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1394,12 +1216,6 @@
       <c r="B30" t="n">
         <v>18</v>
       </c>
-      <c r="C30" t="n">
-        <v>-4.074639311602143</v>
-      </c>
-      <c r="D30" t="n">
-        <v>39.93532624021667</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1408,12 +1224,6 @@
       <c r="B31" t="n">
         <v>18</v>
       </c>
-      <c r="C31" t="n">
-        <v>-5.190385641307411</v>
-      </c>
-      <c r="D31" t="n">
-        <v>41.01987262422956</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1422,12 +1232,6 @@
       <c r="B32" t="n">
         <v>18</v>
       </c>
-      <c r="C32" t="n">
-        <v>-3.510546647329922</v>
-      </c>
-      <c r="D32" t="n">
-        <v>39.54281814454633</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1436,12 +1240,6 @@
       <c r="B33" t="n">
         <v>18</v>
       </c>
-      <c r="C33" t="n">
-        <v>-3.864464741188095</v>
-      </c>
-      <c r="D33" t="n">
-        <v>40.48708271900549</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1450,12 +1248,6 @@
       <c r="B34" t="n">
         <v>18</v>
       </c>
-      <c r="C34" t="n">
-        <v>-5.225971706246503</v>
-      </c>
-      <c r="D34" t="n">
-        <v>39.79409969105137</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1464,12 +1256,6 @@
       <c r="B35" t="n">
         <v>18</v>
       </c>
-      <c r="C35" t="n">
-        <v>-2.99653941279617</v>
-      </c>
-      <c r="D35" t="n">
-        <v>40.41370352758963</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1478,12 +1264,6 @@
       <c r="B36" t="n">
         <v>18</v>
       </c>
-      <c r="C36" t="n">
-        <v>-4.572053819219883</v>
-      </c>
-      <c r="D36" t="n">
-        <v>38.8296446354957</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1492,12 +1272,6 @@
       <c r="B37" t="n">
         <v>18</v>
       </c>
-      <c r="C37" t="n">
-        <v>-3.875548105249989</v>
-      </c>
-      <c r="D37" t="n">
-        <v>40.72126439055647</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1506,12 +1280,6 @@
       <c r="B38" t="n">
         <v>18</v>
       </c>
-      <c r="C38" t="n">
-        <v>-2.394984604430462</v>
-      </c>
-      <c r="D38" t="n">
-        <v>40.77689916758364</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1520,12 +1288,6 @@
       <c r="B39" t="n">
         <v>17</v>
       </c>
-      <c r="C39" t="n">
-        <v>-3.87380615422391</v>
-      </c>
-      <c r="D39" t="n">
-        <v>39.02488823337442</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1534,12 +1296,6 @@
       <c r="B40" t="n">
         <v>17</v>
       </c>
-      <c r="C40" t="n">
-        <v>-6.330881602104323</v>
-      </c>
-      <c r="D40" t="n">
-        <v>40.64618149951462</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1548,12 +1304,6 @@
       <c r="B41" t="n">
         <v>17</v>
       </c>
-      <c r="C41" t="n">
-        <v>-3.932065431696644</v>
-      </c>
-      <c r="D41" t="n">
-        <v>39.9344703337876</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1562,12 +1312,6 @@
       <c r="B42" t="n">
         <v>16</v>
       </c>
-      <c r="C42" t="n">
-        <v>-6.889046017631285</v>
-      </c>
-      <c r="D42" t="n">
-        <v>39.25516001879645</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1576,12 +1320,6 @@
       <c r="B43" t="n">
         <v>16</v>
       </c>
-      <c r="C43" t="n">
-        <v>-6.532220048094338</v>
-      </c>
-      <c r="D43" t="n">
-        <v>39.21738200544963</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1590,12 +1328,6 @@
       <c r="B44" t="n">
         <v>16</v>
       </c>
-      <c r="C44" t="n">
-        <v>-7.165344900999286</v>
-      </c>
-      <c r="D44" t="n">
-        <v>39.01019700591439</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1604,12 +1336,6 @@
       <c r="B45" t="n">
         <v>16</v>
       </c>
-      <c r="C45" t="n">
-        <v>-6.458806781291306</v>
-      </c>
-      <c r="D45" t="n">
-        <v>40.3876557959607</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1618,12 +1344,6 @@
       <c r="B46" t="n">
         <v>16</v>
       </c>
-      <c r="C46" t="n">
-        <v>-6.796791392164205</v>
-      </c>
-      <c r="D46" t="n">
-        <v>37.70709528177134</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1632,12 +1352,6 @@
       <c r="B47" t="n">
         <v>16</v>
       </c>
-      <c r="C47" t="n">
-        <v>-6.386553536273462</v>
-      </c>
-      <c r="D47" t="n">
-        <v>39.00398611132584</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1646,12 +1360,6 @@
       <c r="B48" t="n">
         <v>16</v>
       </c>
-      <c r="C48" t="n">
-        <v>-7.023032179087068</v>
-      </c>
-      <c r="D48" t="n">
-        <v>37.47406802633554</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1660,12 +1368,6 @@
       <c r="B49" t="n">
         <v>16</v>
       </c>
-      <c r="C49" t="n">
-        <v>-7.131361432447015</v>
-      </c>
-      <c r="D49" t="n">
-        <v>39.11167892606952</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1674,12 +1376,6 @@
       <c r="B50" t="n">
         <v>16</v>
       </c>
-      <c r="C50" t="n">
-        <v>-5.73525563810245</v>
-      </c>
-      <c r="D50" t="n">
-        <v>37.07065877135237</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1688,12 +1384,6 @@
       <c r="B51" t="n">
         <v>16</v>
       </c>
-      <c r="C51" t="n">
-        <v>-7.320946901800112</v>
-      </c>
-      <c r="D51" t="n">
-        <v>36.92161248142936</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1702,12 +1392,6 @@
       <c r="B52" t="n">
         <v>16</v>
       </c>
-      <c r="C52" t="n">
-        <v>-6.195085520065345</v>
-      </c>
-      <c r="D52" t="n">
-        <v>39.27765650385987</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1715,12 +1399,6 @@
       </c>
       <c r="B53" t="n">
         <v>15</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-6.555332465829763</v>
-      </c>
-      <c r="D53" t="n">
-        <v>38.72294947421716</v>
       </c>
     </row>
   </sheetData>
